--- a/excel/student.xlsx
+++ b/excel/student.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>mssv</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Vũ Khương Duy</t>
-  </si>
-  <si>
-    <t>23/5/1999</t>
   </si>
   <si>
     <t>nam</t>
@@ -1472,11 +1469,11 @@
       <c r="E6" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="F6" t="s" s="9">
+      <c r="F6" s="11">
+        <v>36161</v>
+      </c>
+      <c r="G6" t="s" s="9">
         <v>5</v>
-      </c>
-      <c r="G6" t="s" s="9">
-        <v>6</v>
       </c>
     </row>
     <row r="7" ht="14.35" customHeight="1">
@@ -1487,13 +1484,13 @@
         <v>17027772</v>
       </c>
       <c r="E7" t="s" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="11">
         <v>36161</v>
       </c>
       <c r="G7" t="s" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.35" customHeight="1">
@@ -1504,13 +1501,13 @@
         <v>17027773</v>
       </c>
       <c r="E8" t="s" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="11">
         <v>35828</v>
       </c>
       <c r="G8" t="s" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="14.35" customHeight="1">
@@ -1521,13 +1518,13 @@
         <v>17027774</v>
       </c>
       <c r="E9" t="s" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="11">
         <v>36197</v>
       </c>
       <c r="G9" t="s" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.35" customHeight="1">
@@ -1538,13 +1535,13 @@
         <v>17027775</v>
       </c>
       <c r="E10" t="s" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="11">
         <v>36162</v>
       </c>
       <c r="G10" t="s" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="14.35" customHeight="1">
@@ -1555,10 +1552,10 @@
         <v>17027776</v>
       </c>
       <c r="E11" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="9">
         <v>12</v>
-      </c>
-      <c r="F11" t="s" s="9">
-        <v>13</v>
       </c>
       <c r="G11" t="s" s="9">
         <v>1</v>
@@ -1572,13 +1569,13 @@
         <v>17027777</v>
       </c>
       <c r="E12" t="s" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="11">
         <v>36287</v>
       </c>
       <c r="G12" t="s" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="14.35" customHeight="1">
@@ -1589,13 +1586,13 @@
         <v>17027778</v>
       </c>
       <c r="E13" t="s" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11">
         <v>36413</v>
       </c>
       <c r="G13" t="s" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.35" customHeight="1">
@@ -1606,13 +1603,13 @@
         <v>17027779</v>
       </c>
       <c r="E14" t="s" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="11">
         <v>36499</v>
       </c>
       <c r="G14" t="s" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="14.35" customHeight="1">
@@ -1623,13 +1620,13 @@
         <v>17027780</v>
       </c>
       <c r="E15" t="s" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11">
         <v>43466</v>
       </c>
       <c r="G15" t="s" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="14.35" customHeight="1">
@@ -1640,13 +1637,13 @@
         <v>17027781</v>
       </c>
       <c r="E16" t="s" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="11">
         <v>36172</v>
       </c>
       <c r="G16" t="s" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="14.35" customHeight="1">
